--- a/classfiers/nano/welm/nearmiss/nano_welm_rbf_nearmiss_results.xlsx
+++ b/classfiers/nano/welm/nearmiss/nano_welm_rbf_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.675</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4799999999999999</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7180451127819548</v>
+        <v>0.685595567867036</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8095238095238094</v>
+        <v>0.85595567867036</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7</v>
+        <v>0.736842105263158</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.625</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8831521739130435</v>
+        <v>0.6441176470588235</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.35</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8155080213903743</v>
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6632051282051282</v>
+        <v>0.6487908961593172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3493700159489633</v>
+        <v>0.3065325077399381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4995604395604396</v>
+        <v>0.4611403089663959</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7852458235218364</v>
+        <v>0.7433257291836401</v>
       </c>
     </row>
   </sheetData>
